--- a/Data/g14.4.xlsx
+++ b/Data/g14.4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -382,10 +387,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31/12/12</t>
-        </is>
-      </c>
-      <c r="C2">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>73.90629</v>
       </c>
     </row>
@@ -397,10 +407,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31/12/13</t>
-        </is>
-      </c>
-      <c r="C3">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>74.87846</v>
       </c>
     </row>
@@ -412,10 +427,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31/12/14</t>
-        </is>
-      </c>
-      <c r="C4">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D4">
         <v>75.22726</v>
       </c>
     </row>
@@ -427,10 +447,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31/12/15</t>
-        </is>
-      </c>
-      <c r="C5">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>74.24216</v>
       </c>
     </row>
@@ -442,10 +467,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31/12/16</t>
-        </is>
-      </c>
-      <c r="C6">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>73.88742999999999</v>
       </c>
     </row>
@@ -457,10 +487,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/17</t>
-        </is>
-      </c>
-      <c r="C7">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>73.11096999999999</v>
       </c>
     </row>
@@ -472,10 +507,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/18</t>
-        </is>
-      </c>
-      <c r="C8">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>72.44574</v>
       </c>
     </row>
@@ -487,10 +527,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/19</t>
-        </is>
-      </c>
-      <c r="C9">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D9">
         <v>72.46505999999999</v>
       </c>
     </row>
@@ -502,10 +547,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/12</t>
-        </is>
-      </c>
-      <c r="C10">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D10">
         <v>68.3031</v>
       </c>
     </row>
@@ -517,10 +567,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/13</t>
-        </is>
-      </c>
-      <c r="C11">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D11">
         <v>69.02534</v>
       </c>
     </row>
@@ -532,10 +587,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31/12/14</t>
-        </is>
-      </c>
-      <c r="C12">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D12">
         <v>69.71397</v>
       </c>
     </row>
@@ -547,10 +607,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/12/15</t>
-        </is>
-      </c>
-      <c r="C13">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D13">
         <v>68.76684</v>
       </c>
     </row>
@@ -562,10 +627,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31/12/16</t>
-        </is>
-      </c>
-      <c r="C14">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D14">
         <v>67.56982000000001</v>
       </c>
     </row>
@@ -577,10 +647,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/12/17</t>
-        </is>
-      </c>
-      <c r="C15">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D15">
         <v>66.92122999999999</v>
       </c>
     </row>
@@ -592,10 +667,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31/12/18</t>
-        </is>
-      </c>
-      <c r="C16">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>66.46942</v>
       </c>
     </row>
@@ -607,10 +687,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>31/12/19</t>
-        </is>
-      </c>
-      <c r="C17">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D17">
         <v>65.81395999999999</v>
       </c>
     </row>
@@ -622,10 +707,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>31/12/12</t>
-        </is>
-      </c>
-      <c r="C18">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>31/12/2012</t>
+        </is>
+      </c>
+      <c r="D18">
         <v>70.50948</v>
       </c>
     </row>
@@ -637,10 +727,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>31/12/13</t>
-        </is>
-      </c>
-      <c r="C19">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D19">
         <v>70.54499</v>
       </c>
     </row>
@@ -652,10 +747,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>31/12/14</t>
-        </is>
-      </c>
-      <c r="C20">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D20">
         <v>73.11539</v>
       </c>
     </row>
@@ -667,10 +767,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31/12/15</t>
-        </is>
-      </c>
-      <c r="C21">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D21">
         <v>72.08212</v>
       </c>
     </row>
@@ -682,10 +787,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31/12/16</t>
-        </is>
-      </c>
-      <c r="C22">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D22">
         <v>72.2735</v>
       </c>
     </row>
@@ -697,10 +807,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31/12/17</t>
-        </is>
-      </c>
-      <c r="C23">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D23">
         <v>67.87478</v>
       </c>
     </row>
@@ -712,10 +827,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31/12/18</t>
-        </is>
-      </c>
-      <c r="C24">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D24">
         <v>68.42001</v>
       </c>
     </row>
@@ -727,10 +847,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31/12/19</t>
-        </is>
-      </c>
-      <c r="C25">
+          <t>Trabalho como origem na renda (%)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D25">
         <v>66.29507</v>
       </c>
     </row>

--- a/Data/g14.4.xlsx
+++ b/Data/g14.4.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -395,8 +471,8 @@
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="D2">
-        <v>73.90629</v>
+      <c r="D2" t="n">
+        <v>73.90628608164103</v>
       </c>
     </row>
     <row r="3">
@@ -415,8 +491,8 @@
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="D3">
-        <v>74.87846</v>
+      <c r="D3" t="n">
+        <v>74.87845239561243</v>
       </c>
     </row>
     <row r="4">
@@ -435,8 +511,8 @@
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="D4">
-        <v>75.22726</v>
+      <c r="D4" t="n">
+        <v>75.227255720323</v>
       </c>
     </row>
     <row r="5">
@@ -455,8 +531,8 @@
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="D5">
-        <v>74.24216</v>
+      <c r="D5" t="n">
+        <v>74.24216570751079</v>
       </c>
     </row>
     <row r="6">
@@ -475,8 +551,8 @@
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="D6">
-        <v>73.88742999999999</v>
+      <c r="D6" t="n">
+        <v>73.88742736925968</v>
       </c>
     </row>
     <row r="7">
@@ -495,8 +571,8 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="D7">
-        <v>73.11096999999999</v>
+      <c r="D7" t="n">
+        <v>73.11097220250942</v>
       </c>
     </row>
     <row r="8">
@@ -515,8 +591,8 @@
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="D8">
-        <v>72.44574</v>
+      <c r="D8" t="n">
+        <v>72.445743251691</v>
       </c>
     </row>
     <row r="9">
@@ -535,8 +611,8 @@
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="D9">
-        <v>72.46505999999999</v>
+      <c r="D9" t="n">
+        <v>72.46505537040943</v>
       </c>
     </row>
     <row r="10">
@@ -555,8 +631,8 @@
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="D10">
-        <v>68.3031</v>
+      <c r="D10" t="n">
+        <v>68.30309948103121</v>
       </c>
     </row>
     <row r="11">
@@ -575,8 +651,8 @@
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="D11">
-        <v>69.02534</v>
+      <c r="D11" t="n">
+        <v>69.02533752250977</v>
       </c>
     </row>
     <row r="12">
@@ -595,8 +671,8 @@
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="D12">
-        <v>69.71397</v>
+      <c r="D12" t="n">
+        <v>69.7139695566502</v>
       </c>
     </row>
     <row r="13">
@@ -615,8 +691,8 @@
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="D13">
-        <v>68.76684</v>
+      <c r="D13" t="n">
+        <v>68.76683506152278</v>
       </c>
     </row>
     <row r="14">
@@ -635,8 +711,8 @@
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="D14">
-        <v>67.56982000000001</v>
+      <c r="D14" t="n">
+        <v>67.56981955920176</v>
       </c>
     </row>
     <row r="15">
@@ -655,8 +731,8 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="D15">
-        <v>66.92122999999999</v>
+      <c r="D15" t="n">
+        <v>66.92122536991279</v>
       </c>
     </row>
     <row r="16">
@@ -675,8 +751,8 @@
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="D16">
-        <v>66.46942</v>
+      <c r="D16" t="n">
+        <v>66.46941779977874</v>
       </c>
     </row>
     <row r="17">
@@ -695,8 +771,8 @@
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="D17">
-        <v>65.81395999999999</v>
+      <c r="D17" t="n">
+        <v>65.81396850913467</v>
       </c>
     </row>
     <row r="18">
@@ -715,8 +791,8 @@
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="D18">
-        <v>70.50948</v>
+      <c r="D18" t="n">
+        <v>70.50948313626914</v>
       </c>
     </row>
     <row r="19">
@@ -735,8 +811,8 @@
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="D19">
-        <v>70.54499</v>
+      <c r="D19" t="n">
+        <v>70.54499339278689</v>
       </c>
     </row>
     <row r="20">
@@ -755,8 +831,8 @@
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="D20">
-        <v>73.11539</v>
+      <c r="D20" t="n">
+        <v>73.11539444176552</v>
       </c>
     </row>
     <row r="21">
@@ -775,8 +851,8 @@
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="D21">
-        <v>72.08212</v>
+      <c r="D21" t="n">
+        <v>72.0821127153868</v>
       </c>
     </row>
     <row r="22">
@@ -795,8 +871,8 @@
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="D22">
-        <v>72.2735</v>
+      <c r="D22" t="n">
+        <v>72.27349599031911</v>
       </c>
     </row>
     <row r="23">
@@ -815,8 +891,8 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="D23">
-        <v>67.87478</v>
+      <c r="D23" t="n">
+        <v>67.87478231295312</v>
       </c>
     </row>
     <row r="24">
@@ -835,8 +911,8 @@
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="D24">
-        <v>68.42001</v>
+      <c r="D24" t="n">
+        <v>68.42000566543707</v>
       </c>
     </row>
     <row r="25">
@@ -855,11 +931,11 @@
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="D25">
-        <v>66.29507</v>
+      <c r="D25" t="n">
+        <v>66.29507629858439</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>